--- a/Onebeat Troubleshooting Guide.xlsx
+++ b/Onebeat Troubleshooting Guide.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date Incident Occurred</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Description of Problem</t>
   </si>
   <si>
-    <t>Step taken</t>
-  </si>
-  <si>
     <t>Defined Problem</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Today morning LnR process took longer than normal. When we checked server LnR got failed and database is in recovery mode. Usually some other process would have clashed lnr process for example patch applying, anti virus etc. In this case LnR takes long time and later got failed. This was conclusion at first glance</t>
-  </si>
-  <si>
-    <t>Request HRJ IT team to check if any such process clashed on same time either manually or auto. Client confirmed nothing happened on server at the time of LnR</t>
   </si>
   <si>
     <t>Symphony server log Snippet: 04/23/2021 07:49:42,spid15s,Unknown,SQL Server has encountered 49 occurrence(s) of I/O requests taking longer than 15 seconds to complete on file [E:\SQL_SYMPHONY_DATA\SYMPHONY_HRJ_Data.MDF] in database id 7.  The OS file handle is 0x0000000000000A80.  The offset of the latest long I/O is: 0x000008c73b4000</t>
@@ -99,13 +93,13 @@
     <t>Done on Production database server</t>
   </si>
   <si>
-    <t>Added the steps to shrink LDF log files. Also added monitoring steps for database like reporting services should be false and index parameter should be between 0.9 to 1</t>
-  </si>
-  <si>
     <t>LnR Failed in HRJ</t>
   </si>
   <si>
     <t xml:space="preserve">Incident  </t>
+  </si>
+  <si>
+    <t>Added the steps to shrink LDF log files. Also added monitoring steps for database like reporting services should be false and index parameter should be between 0.9 to 1. Also checked windows event log of the same time stamp. Got following error in event viewer.</t>
   </si>
 </sst>
 </file>
@@ -200,6 +194,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8286750"/>
+          <a:ext cx="10833100" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -501,10 +547,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -520,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="58">
@@ -528,31 +574,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="58">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="333.5">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="333.5">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -560,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -568,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:3">
@@ -576,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:3">
@@ -584,28 +630,21 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="43.5">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="29">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
